--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>873020.035326984</v>
+        <v>918715.304380581</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564201</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>9102620.618728809</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3068649741724</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>140.2343831124422</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>156.1271626621474</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>34.56933988579462</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>89.97966861189192</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>79.57033125550525</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>55.66811582074952</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>3.270884136074646</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>41.28979930427337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G9" t="n">
         <v>136.5310119231965</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>70.80276983270103</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>80.62733132012332</v>
       </c>
       <c r="F11" t="n">
-        <v>26.91743199191124</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>115.2511029009962</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>54.49253106276984</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>80.30846669433845</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>171.9571657509258</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>190.241644097956</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>189.5968436493439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>47.40419526769224</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>6.755070650135057</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2140,13 +2140,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>252.5570757336667</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>333.910020732437</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>305.6037131849759</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>376.036888519322</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>37.83808333974872</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>240.9932857516827</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>334.58170967322</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>104.8405888295618</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>177.2926684532964</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>168.7756050755991</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>269.5134569480832</v>
+        <v>69.07086245343436</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>404.0523131718581</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>105.2227863989124</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>216.6993815150877</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>98.08828121259629</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="W43" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>305.8845841741733</v>
       </c>
       <c r="G44" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>22.58276652364323</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1019.519018857857</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C2" t="n">
-        <v>1019.519018857857</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D2" t="n">
-        <v>661.2533202511061</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E2" t="n">
-        <v>275.4650676528618</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4345,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.118858921978</v>
+        <v>1168.064026826587</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,16 +4406,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
@@ -4430,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.7879015331887</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="C5" t="n">
-        <v>927.7879015331887</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D5" t="n">
-        <v>569.5222029264382</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E5" t="n">
-        <v>569.5222029264382</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F5" t="n">
-        <v>569.5222029264382</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.38774159731</v>
+        <v>1352.60098147425</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.0633493392339</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="C7" t="n">
-        <v>257.0633493392339</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="D7" t="n">
-        <v>257.0633493392339</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="E7" t="n">
-        <v>257.0633493392339</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>110.1734018413236</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>110.1734018413236</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>438.9553738610025</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1289.354447327928</v>
+        <v>1271.984870679802</v>
       </c>
       <c r="C8" t="n">
-        <v>920.3919303875161</v>
+        <v>1271.984870679802</v>
       </c>
       <c r="D8" t="n">
-        <v>920.3919303875161</v>
+        <v>1271.984870679802</v>
       </c>
       <c r="E8" t="n">
-        <v>534.603677789272</v>
+        <v>886.1966180815575</v>
       </c>
       <c r="F8" t="n">
-        <v>534.603677789272</v>
+        <v>475.21071329195</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>57.24690519013683</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>57.24690519013683</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2600.413533564601</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2346.651748202692</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2015.588860859122</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.820205589008</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.354447327928</v>
+        <v>1662.124202655614</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.354447327928</v>
+        <v>1271.984870679802</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F9" t="n">
         <v>359.3385232961344</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,16 +4895,16 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4609311463251</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1348.719328075852</v>
+        <v>1117.800419524901</v>
       </c>
       <c r="C11" t="n">
-        <v>979.7568111354399</v>
+        <v>1117.800419524901</v>
       </c>
       <c r="D11" t="n">
-        <v>979.7568111354399</v>
+        <v>1117.800419524901</v>
       </c>
       <c r="E11" t="n">
-        <v>979.7568111354399</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
         <v>207.4089578252748</v>
@@ -5041,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V11" t="n">
-        <v>2112.324418312743</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W11" t="n">
-        <v>2112.324418312743</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X11" t="n">
-        <v>1738.858660051663</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y11" t="n">
-        <v>1348.719328075852</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5135,34 +5135,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5232,16 +5232,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
         <v>53.94298182036445</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1199.13500546934</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C14" t="n">
-        <v>830.1724885289282</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D14" t="n">
-        <v>471.9067899221776</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
         <v>471.9067899221776</v>
@@ -5281,16 +5281,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2580.733835562671</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2580.733835562671</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2326.972050200762</v>
       </c>
       <c r="V14" t="n">
-        <v>1938.503500803576</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W14" t="n">
-        <v>1585.734845533462</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X14" t="n">
-        <v>1585.734845533462</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y14" t="n">
-        <v>1585.734845533462</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5369,37 +5369,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5460,28 +5460,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610022</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V16" t="n">
-        <v>184.2708856551153</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>882.8926947117852</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,7 +5515,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5545,22 +5545,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W17" t="n">
-        <v>1646.497784948677</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X17" t="n">
-        <v>1273.032026687597</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y17" t="n">
-        <v>882.8926947117852</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5597,10 +5597,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5615,22 +5615,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5706,10 +5706,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>536.6170209242687</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
         <v>281.9325327183818</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1309.714918859356</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C20" t="n">
-        <v>940.7524019189439</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="D20" t="n">
-        <v>582.4867033121934</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="E20" t="n">
-        <v>534.603677789272</v>
+        <v>478.7300936091827</v>
       </c>
       <c r="F20" t="n">
-        <v>534.603677789272</v>
+        <v>478.7300936091827</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>60.76628550736956</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>60.76628550736956</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5788,16 +5788,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X20" t="n">
-        <v>1309.714918859356</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y20" t="n">
-        <v>1309.714918859356</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5940,22 +5940,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1882.054803223514</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C23" t="n">
-        <v>1626.94664591678</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>809.1896391468615</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>809.1896391468615</v>
       </c>
       <c r="F23" t="n">
         <v>471.9067899221776</v>
@@ -5995,7 +5995,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y23" t="n">
-        <v>2268.654643287636</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="24">
@@ -6080,10 +6080,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6177,10 +6177,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V25" t="n">
         <v>343.360151857325</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1577.945354755378</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C26" t="n">
-        <v>1208.982837814967</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D26" t="n">
         <v>850.7171392082162</v>
@@ -6229,10 +6229,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6253,25 +6253,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="X26" t="n">
-        <v>2344.380435748108</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="Y26" t="n">
-        <v>1964.5451948195</v>
+        <v>1237.316979272338</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>689.9086980046678</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="C29" t="n">
-        <v>1546.944160717209</v>
+        <v>1547.282842550966</v>
       </c>
       <c r="D29" t="n">
-        <v>1188.678462110459</v>
+        <v>1189.017143944216</v>
       </c>
       <c r="E29" t="n">
-        <v>802.8902095122144</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F29" t="n">
-        <v>391.9043047226068</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6648,19 +6648,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
         <v>53.94298182036445</v>
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="C32" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D32" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2591.249506341897</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T32" t="n">
-        <v>2372.61483931396</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U32" t="n">
-        <v>2372.61483931396</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V32" t="n">
-        <v>2372.61483931396</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W32" t="n">
-        <v>2372.61483931396</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X32" t="n">
-        <v>2372.61483931396</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y32" t="n">
-        <v>1982.475507338148</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
         <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6916,22 +6916,22 @@
         <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.95295430729</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036444</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036444</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C37" t="n">
         <v>53.94298182036444</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1258.85078887676</v>
+        <v>1358.140854479381</v>
       </c>
       <c r="C38" t="n">
-        <v>1258.85078887676</v>
+        <v>989.1783375389693</v>
       </c>
       <c r="D38" t="n">
-        <v>1258.85078887676</v>
+        <v>989.1783375389693</v>
       </c>
       <c r="E38" t="n">
-        <v>873.0625362785156</v>
+        <v>989.1783375389693</v>
       </c>
       <c r="F38" t="n">
-        <v>462.076631488908</v>
+        <v>578.1924327493618</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>160.2286246475487</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V38" t="n">
-        <v>2388.358616186807</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W38" t="n">
-        <v>2035.589960916693</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="X38" t="n">
-        <v>2035.589960916693</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="Y38" t="n">
-        <v>1645.450628940882</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,7 +7414,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
         <v>881.2824271224076</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1795.460519632919</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="42">
@@ -7596,19 +7596,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V43" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
         <v>53.94298182036445</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D44" t="n">
-        <v>1122.952954307291</v>
+        <v>780.8811173708375</v>
       </c>
       <c r="E44" t="n">
-        <v>737.1647017090463</v>
+        <v>780.8811173708375</v>
       </c>
       <c r="F44" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7687,13 +7687,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>76.75385709677175</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>76.75385709677175</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V46" t="n">
-        <v>525.0086166875648</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W46" t="n">
-        <v>235.5914466506042</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X46" t="n">
-        <v>235.5914466506042</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.5914466506042</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747164</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,10 +9965,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5691807675391</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22606,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>229.4967175660269</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22716,7 +22716,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>50.78177823929093</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787155</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>379.2148301350004</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>296.2582700441617</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22950,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>66.86363139106392</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22959,13 +22959,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>100.5027730210456</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,13 +22998,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>148.6604321087866</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>175.1585210533844</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,25 +23184,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>64.16285195963722</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>301.3030387521385</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9586137498002</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23472,19 +23472,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>59.16460990797538</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>273.2597274073651</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23700,22 +23700,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>144.7266387637458</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>193.3157260200817</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23785,7 +23785,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>158.999324619457</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23946,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>96.68503059263386</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>131.0703856053969</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>334.5261748045696</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>145.1762455947262</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24180,10 +24180,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>69.58249272689014</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>112.7158160373409</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>72.9660250092744</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24417,13 +24417,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>43.63725553243711</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.20105013673162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>174.3074556102702</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>140.9370843205791</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>79.20246034757503</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>56.93405031343801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.57512397940974</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>171.9483002641166</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>117.5062691663786</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>85.16958467259974</v>
+        <v>285.6121791672486</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>12.03533246204694</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.7318568489369</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>218.6999863654447</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,19 +25602,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>69.82361682150335</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>271.6428194658728</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="W43" t="n">
-        <v>96.92615468724713</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>100.9914615675382</v>
       </c>
       <c r="G44" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>144.7270357354077</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>51.04847948014728</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>763912.8841460872</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.97951497</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149699</v>
       </c>
       <c r="F2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="G2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="H2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="I2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149696</v>
-      </c>
       <c r="L2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26505,7 +26505,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-431287.2286137684</v>
+        <v>-425825.6562425313</v>
       </c>
       <c r="C6" t="n">
-        <v>158680.650600776</v>
+        <v>164142.2229720134</v>
       </c>
       <c r="D6" t="n">
-        <v>158680.650600776</v>
+        <v>164142.2229720134</v>
       </c>
       <c r="E6" t="n">
-        <v>192308.2506007761</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="F6" t="n">
-        <v>192308.2506007761</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="G6" t="n">
-        <v>192308.2506007761</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="H6" t="n">
-        <v>192308.2506007761</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="I6" t="n">
-        <v>192308.250600776</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="J6" t="n">
-        <v>15885.03140818304</v>
+        <v>21346.60377942044</v>
       </c>
       <c r="K6" t="n">
-        <v>192308.2506007758</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="L6" t="n">
-        <v>192308.2506007761</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="M6" t="n">
-        <v>192308.250600776</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="N6" t="n">
-        <v>192308.250600776</v>
+        <v>197769.8229720133</v>
       </c>
       <c r="O6" t="n">
-        <v>192308.2506007758</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="P6" t="n">
-        <v>192308.250600776</v>
+        <v>197769.8229720134</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26819,13 +26819,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35977,7 +35977,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,10 +36685,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,7 +37399,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37873,7 +37873,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
